--- a/docs/input_template_lface (utexas match).xlsx
+++ b/docs/input_template_lface (utexas match).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/slopetools/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/cursor_projects/slopetools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C37EBC3-B178-F944-9648-80E864B8C5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B9575-E9A5-914E-B008-AEA6D509530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21100" yWindow="1660" windowWidth="30020" windowHeight="24340" activeTab="5" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="21100" yWindow="1660" windowWidth="30020" windowHeight="24340" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>X</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t xml:space="preserve">Seismic coefficient (k): </t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Does not move</t>
   </si>
 </sst>
 </file>
@@ -4364,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02E090B-D957-7046-AD33-44E170F709C1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5088,16 +5094,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5565,7 +5571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE6F868-4227-8740-A8A1-4745562882FC}">
   <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -5783,7 +5789,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5854,6 +5860,12 @@
       <c r="C5" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -5924,7 +5936,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17" xr:uid="{AA25ABA8-BD81-3340-AC36-04678AD547F3}">
-      <formula1>$E$3:$E$4</formula1>
+      <formula1>$E$3:$E$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
